--- a/processed_files/Salem_Athenaeum_1811.xlsx
+++ b/processed_files/Salem_Athenaeum_1811.xlsx
@@ -10670,7 +10670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10792,8 +10794,8 @@
         <v>14</v>
       </c>
       <c r="O4">
-        <f>N4/(COUNTA(H:H)-N5-N7-N8)</f>
-        <v>0.1044776119402985</v>
+        <f>N4/(COUNTA(H:H)-N5-N7-N8-1)</f>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -10886,8 +10888,8 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f>N7/(COUNTA(H:H)-N8-N5)</f>
-        <v>7.4074074074074077E-3</v>
+        <f>N7/(COUNTA(H:H)-N8-N5-1)</f>
+        <v>7.462686567164179E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">

--- a/processed_files/Salem_Athenaeum_1811.xlsx
+++ b/processed_files/Salem_Athenaeum_1811.xlsx
@@ -10670,8 +10670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10794,8 +10794,8 @@
         <v>14</v>
       </c>
       <c r="O4">
-        <f>N4/(COUNTA(H:H)-N5-N7-N8-1)</f>
-        <v>0.10526315789473684</v>
+        <f>N4/(N9-N5-N7-N8)</f>
+        <v>0.11290322580645161</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -10888,8 +10888,8 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <f>N7/(COUNTA(H:H)-N8-N5-1)</f>
-        <v>7.462686567164179E-3</v>
+        <f>N7/(N9-N8-N5)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -10937,6 +10937,10 @@
       </c>
       <c r="J9">
         <v>0.67271185448029869</v>
+      </c>
+      <c r="N9">
+        <f>SUM(N2:N8)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
